--- a/_Code/dhs_variable_definitions.xlsx
+++ b/_Code/dhs_variable_definitions.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnpainter/Dropbox/_Malaria/Projects/DHS/_Code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bzp3\dropbox\_Malaria\Projects\DHS\_Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="84" yWindow="456" windowWidth="25524" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="definitions" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="275">
   <si>
     <t>Variable</t>
   </si>
@@ -839,12 +839,27 @@
   </si>
   <si>
     <t>Country code and phase</t>
+  </si>
+  <si>
+    <t>addNA( cut( hml16, breaks= c(0,5,15,25,35,45, Inf) )  )</t>
+  </si>
+  <si>
+    <t>Age groups</t>
+  </si>
+  <si>
+    <t>age.grp</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dummy variable for counting </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1172,24 +1187,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.796875" customWidth="1"/>
     <col min="4" max="4" width="55.5" customWidth="1"/>
-    <col min="5" max="5" width="58.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.69921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1221,7 +1236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -1244,29 +1259,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>145</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -1275,15 +1287,18 @@
         <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -1292,18 +1307,15 @@
         <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
-      </c>
-      <c r="J6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -1312,38 +1324,38 @@
         <v>60</v>
       </c>
       <c r="D7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" t="s">
+        <v>150</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>4</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>151</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E10" t="s">
-        <v>153</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>154</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -1352,18 +1364,18 @@
         <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -1375,15 +1387,15 @@
         <v>155</v>
       </c>
       <c r="E12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -1392,98 +1404,75 @@
         <v>60</v>
       </c>
       <c r="D13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
         <v>159</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>62</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>58</v>
-      </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" t="s">
-        <v>160</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>161</v>
       </c>
       <c r="C17" t="s">
         <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>272</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
         <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>164</v>
+        <v>271</v>
       </c>
       <c r="E18" t="s">
-        <v>165</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>166</v>
-      </c>
-      <c r="B19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" t="s">
-        <v>167</v>
-      </c>
-      <c r="E19" t="s">
-        <v>168</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
         <v>161</v>
@@ -1492,78 +1481,78 @@
         <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E20" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
         <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E22" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s">
         <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E23" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>178</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" t="s">
-        <v>179</v>
-      </c>
-      <c r="E24" t="s">
-        <v>180</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B25" t="s">
         <v>58</v>
@@ -1572,87 +1561,78 @@
         <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E25" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>176</v>
+      </c>
+      <c r="E26" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="B28" t="s">
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>183</v>
       </c>
       <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>186</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" t="s">
-        <v>187</v>
-      </c>
-      <c r="E29" t="s">
-        <v>188</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
         <v>58</v>
@@ -1661,10 +1641,10 @@
         <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1673,21 +1653,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
         <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1696,55 +1699,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
         <v>59</v>
       </c>
       <c r="D33" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E33" t="s">
-        <v>194</v>
+        <v>24</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>148</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" t="s">
-        <v>191</v>
-      </c>
-      <c r="E34" t="s">
-        <v>195</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
@@ -1753,21 +1733,44 @@
         <v>59</v>
       </c>
       <c r="D35" t="s">
+        <v>191</v>
+      </c>
+      <c r="E35" t="s">
+        <v>192</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" t="s">
         <v>193</v>
       </c>
-      <c r="E35" t="s">
-        <v>196</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>194</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
@@ -1776,10 +1779,10 @@
         <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E37" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1788,9 +1791,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -1799,10 +1802,10 @@
         <v>59</v>
       </c>
       <c r="D38" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E38" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1811,32 +1814,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>201</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" t="s">
-        <v>197</v>
-      </c>
-      <c r="E39" t="s">
-        <v>202</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>203</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -1845,21 +1825,44 @@
         <v>59</v>
       </c>
       <c r="D40" t="s">
+        <v>197</v>
+      </c>
+      <c r="E40" t="s">
+        <v>198</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" t="s">
         <v>199</v>
       </c>
-      <c r="E40" t="s">
-        <v>204</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>200</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -1868,10 +1871,10 @@
         <v>59</v>
       </c>
       <c r="D42" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E42" t="s">
-        <v>25</v>
+        <v>202</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1880,9 +1883,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>203</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
@@ -1891,10 +1894,10 @@
         <v>59</v>
       </c>
       <c r="D43" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E43" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -1903,29 +1906,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>208</v>
-      </c>
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" t="s">
-        <v>205</v>
-      </c>
-      <c r="E44" t="s">
-        <v>209</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>210</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
@@ -1934,18 +1917,44 @@
         <v>59</v>
       </c>
       <c r="D45" t="s">
+        <v>205</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" t="s">
         <v>206</v>
       </c>
-      <c r="E45" t="s">
-        <v>211</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>207</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -1954,44 +1963,38 @@
         <v>59</v>
       </c>
       <c r="D47" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E47" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>154</v>
-      </c>
-      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>210</v>
+      </c>
+      <c r="B48" t="s">
         <v>7</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C48" t="s">
         <v>59</v>
       </c>
-      <c r="D49" t="s">
-        <v>155</v>
-      </c>
-      <c r="E49" t="s">
-        <v>214</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>206</v>
+      </c>
+      <c r="E48" t="s">
+        <v>211</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
@@ -2000,10 +2003,10 @@
         <v>59</v>
       </c>
       <c r="D50" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="E50" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -2012,22 +2015,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="B52" t="s">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
       </c>
       <c r="D52" t="s">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="E52" t="s">
-        <v>56</v>
+        <v>214</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2036,21 +2038,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="B53" t="s">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>59</v>
       </c>
       <c r="D53" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="E53" t="s">
-        <v>35</v>
+        <v>215</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -2059,32 +2061,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>163</v>
-      </c>
-      <c r="B54" t="s">
-        <v>161</v>
-      </c>
-      <c r="C54" t="s">
-        <v>59</v>
-      </c>
-      <c r="D54" t="s">
-        <v>216</v>
-      </c>
-      <c r="E54" t="s">
-        <v>217</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
         <v>161</v>
@@ -2093,24 +2073,21 @@
         <v>59</v>
       </c>
       <c r="D55" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E55" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="J55" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>218</v>
+        <v>46</v>
       </c>
       <c r="B56" t="s">
         <v>161</v>
@@ -2119,24 +2096,21 @@
         <v>59</v>
       </c>
       <c r="D56" t="s">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c r="E56" t="s">
-        <v>220</v>
+        <v>35</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="J56" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="B57" t="s">
         <v>161</v>
@@ -2145,24 +2119,21 @@
         <v>59</v>
       </c>
       <c r="D57" t="s">
-        <v>39</v>
+        <v>216</v>
       </c>
       <c r="E57" t="s">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="J57" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
       <c r="B58" t="s">
         <v>161</v>
@@ -2171,81 +2142,99 @@
         <v>59</v>
       </c>
       <c r="D58" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="J58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>218</v>
+      </c>
+      <c r="B59" t="s">
+        <v>161</v>
+      </c>
+      <c r="C59" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" t="s">
+        <v>219</v>
+      </c>
+      <c r="E59" t="s">
+        <v>220</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="J59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" t="s">
+        <v>27</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="J60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" t="s">
         <v>221</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E61" t="s">
         <v>222</v>
       </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>49</v>
-      </c>
-      <c r="B63" t="s">
-        <v>58</v>
-      </c>
-      <c r="C63" t="s">
-        <v>59</v>
-      </c>
-      <c r="E63" t="s">
-        <v>29</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>50</v>
-      </c>
-      <c r="B64" t="s">
-        <v>58</v>
-      </c>
-      <c r="C64" t="s">
-        <v>59</v>
-      </c>
-      <c r="E64" t="s">
-        <v>28</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>223</v>
-      </c>
-      <c r="B65" t="s">
-        <v>58</v>
-      </c>
-      <c r="C65" t="s">
-        <v>59</v>
-      </c>
-      <c r="E65" t="s">
-        <v>224</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>225</v>
       </c>
       <c r="B66" t="s">
         <v>58</v>
@@ -2254,18 +2243,18 @@
         <v>59</v>
       </c>
       <c r="E66" t="s">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>227</v>
+        <v>50</v>
       </c>
       <c r="B67" t="s">
         <v>58</v>
@@ -2273,22 +2262,19 @@
       <c r="C67" t="s">
         <v>59</v>
       </c>
-      <c r="D67" t="s">
-        <v>228</v>
-      </c>
       <c r="E67" t="s">
-        <v>229</v>
+        <v>28</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B68" t="s">
         <v>58</v>
@@ -2296,31 +2282,51 @@
       <c r="C68" t="s">
         <v>59</v>
       </c>
-      <c r="D68" t="s">
-        <v>231</v>
-      </c>
       <c r="E68" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>225</v>
+      </c>
+      <c r="B69" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69" t="s">
+        <v>59</v>
+      </c>
+      <c r="E69" t="s">
+        <v>226</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>41</v>
+        <v>227</v>
       </c>
       <c r="B70" t="s">
         <v>58</v>
       </c>
       <c r="C70" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="D70" t="s">
+        <v>228</v>
       </c>
       <c r="E70" t="s">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -2329,87 +2335,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>51</v>
-      </c>
-      <c r="B72" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" t="s">
-        <v>61</v>
-      </c>
-      <c r="D72" t="s">
-        <v>233</v>
-      </c>
-      <c r="E72" t="s">
-        <v>234</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72">
-        <v>2</v>
-      </c>
-      <c r="I72" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>230</v>
+      </c>
+      <c r="B71" t="s">
+        <v>58</v>
+      </c>
+      <c r="C71" t="s">
+        <v>59</v>
+      </c>
+      <c r="D71" t="s">
+        <v>231</v>
+      </c>
+      <c r="E71" t="s">
+        <v>232</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>236</v>
+        <v>41</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C73" t="s">
         <v>61</v>
       </c>
-      <c r="D73" t="s">
-        <v>237</v>
-      </c>
       <c r="E73" t="s">
-        <v>238</v>
+        <v>30</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>2</v>
-      </c>
-      <c r="I73" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>52</v>
-      </c>
-      <c r="B74" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" t="s">
-        <v>61</v>
-      </c>
-      <c r="D74" t="s">
-        <v>239</v>
-      </c>
-      <c r="E74" t="s">
-        <v>31</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="H74">
-        <v>2</v>
-      </c>
-      <c r="I74" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>240</v>
+        <v>51</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
@@ -2418,10 +2389,10 @@
         <v>61</v>
       </c>
       <c r="D75" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E75" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -2433,9 +2404,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>53</v>
+        <v>236</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
@@ -2444,10 +2415,10 @@
         <v>61</v>
       </c>
       <c r="D76" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E76" t="s">
-        <v>32</v>
+        <v>238</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -2459,9 +2430,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>244</v>
+        <v>52</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
@@ -2470,10 +2441,10 @@
         <v>61</v>
       </c>
       <c r="D77" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E77" t="s">
-        <v>246</v>
+        <v>31</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -2485,9 +2456,35 @@
         <v>235</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>240</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>61</v>
+      </c>
+      <c r="D78" t="s">
+        <v>241</v>
+      </c>
+      <c r="E78" t="s">
+        <v>242</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>247</v>
+        <v>53</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
@@ -2496,10 +2493,10 @@
         <v>61</v>
       </c>
       <c r="D79" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E79" t="s">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -2511,9 +2508,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -2522,10 +2519,10 @@
         <v>61</v>
       </c>
       <c r="D80" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E80" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -2537,21 +2534,21 @@
         <v>235</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>54</v>
+        <v>247</v>
       </c>
       <c r="B82" t="s">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>61</v>
       </c>
       <c r="D82" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E82" t="s">
-        <v>33</v>
+        <v>249</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -2563,21 +2560,21 @@
         <v>235</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>54</v>
+        <v>250</v>
       </c>
       <c r="B83" t="s">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>61</v>
       </c>
       <c r="D83" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E83" t="s">
-        <v>33</v>
+        <v>252</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -2589,35 +2586,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>55</v>
-      </c>
-      <c r="B84" t="s">
-        <v>161</v>
-      </c>
-      <c r="C84" t="s">
-        <v>61</v>
-      </c>
-      <c r="D84" t="s">
-        <v>254</v>
-      </c>
-      <c r="E84" t="s">
-        <v>34</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-      <c r="H84">
-        <v>2</v>
-      </c>
-      <c r="I84" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>255</v>
+        <v>54</v>
       </c>
       <c r="B85" t="s">
         <v>161</v>
@@ -2626,10 +2597,10 @@
         <v>61</v>
       </c>
       <c r="D85" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E85" t="s">
-        <v>256</v>
+        <v>33</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -2641,9 +2612,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>257</v>
+        <v>54</v>
       </c>
       <c r="B86" t="s">
         <v>161</v>
@@ -2652,10 +2623,10 @@
         <v>61</v>
       </c>
       <c r="D86" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E86" t="s">
-        <v>259</v>
+        <v>33</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -2667,21 +2638,47 @@
         <v>235</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>55</v>
+      </c>
+      <c r="B87" t="s">
+        <v>161</v>
+      </c>
+      <c r="C87" t="s">
+        <v>61</v>
+      </c>
+      <c r="D87" t="s">
+        <v>254</v>
+      </c>
+      <c r="E87" t="s">
+        <v>34</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B88" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="C88" t="s">
         <v>61</v>
       </c>
       <c r="D88" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E88" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -2693,21 +2690,21 @@
         <v>235</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B89" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="C89" t="s">
         <v>61</v>
       </c>
       <c r="D89" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E89" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -2716,6 +2713,58 @@
         <v>2</v>
       </c>
       <c r="I89" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>260</v>
+      </c>
+      <c r="B91" t="s">
+        <v>58</v>
+      </c>
+      <c r="C91" t="s">
+        <v>61</v>
+      </c>
+      <c r="D91" t="s">
+        <v>261</v>
+      </c>
+      <c r="E91" t="s">
+        <v>262</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>2</v>
+      </c>
+      <c r="I91" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>263</v>
+      </c>
+      <c r="B92" t="s">
+        <v>58</v>
+      </c>
+      <c r="C92" t="s">
+        <v>61</v>
+      </c>
+      <c r="D92" t="s">
+        <v>264</v>
+      </c>
+      <c r="E92" t="s">
+        <v>265</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>2</v>
+      </c>
+      <c r="I92" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2732,10 +2781,10 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -2771,13 +2820,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>266</v>
       </c>
@@ -2785,7 +2834,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -2793,7 +2842,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -2801,7 +2850,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -2809,7 +2858,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -2817,7 +2866,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -2825,7 +2874,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -2833,7 +2882,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -2841,7 +2890,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -2849,7 +2898,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>88</v>
       </c>
@@ -2857,7 +2906,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>90</v>
       </c>
@@ -2865,7 +2914,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -2873,7 +2922,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>94</v>
       </c>
@@ -2881,7 +2930,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -2889,7 +2938,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>71</v>
       </c>
@@ -2897,7 +2946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>96</v>
       </c>
@@ -2905,7 +2954,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>98</v>
       </c>
@@ -2913,7 +2962,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>100</v>
       </c>
@@ -2921,7 +2970,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>102</v>
       </c>
@@ -2929,7 +2978,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -2937,7 +2986,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -2945,7 +2994,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>108</v>
       </c>
@@ -2953,7 +3002,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>268</v>
       </c>
@@ -2961,7 +3010,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -2969,7 +3018,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -2977,7 +3026,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -2985,7 +3034,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>116</v>
       </c>
@@ -2993,7 +3042,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>118</v>
       </c>
@@ -3001,7 +3050,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>120</v>
       </c>
@@ -3009,7 +3058,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>118</v>
       </c>
@@ -3017,7 +3066,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>123</v>
       </c>
@@ -3025,7 +3074,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>125</v>
       </c>
@@ -3033,7 +3082,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>127</v>
       </c>
@@ -3041,7 +3090,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>129</v>
       </c>
@@ -3049,7 +3098,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>131</v>
       </c>
@@ -3057,7 +3106,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>133</v>
       </c>
@@ -3065,7 +3114,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -3073,7 +3122,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>137</v>
       </c>
@@ -3081,12 +3130,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>50</v>
       </c>

--- a/_Code/dhs_variable_definitions.xlsx
+++ b/_Code/dhs_variable_definitions.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="84" yWindow="456" windowWidth="25524" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15996" tabRatio="729" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="definitions" sheetId="4" r:id="rId1"/>
-    <sheet name="rename" sheetId="2" r:id="rId2"/>
-    <sheet name="variables" sheetId="3" r:id="rId3"/>
+    <sheet name="derived-household" sheetId="5" r:id="rId1"/>
+    <sheet name="derived-indiv" sheetId="4" r:id="rId2"/>
+    <sheet name="derived-children" sheetId="7" r:id="rId3"/>
+    <sheet name="rename" sheetId="2" r:id="rId4"/>
+    <sheet name="variables" sheetId="3" r:id="rId5"/>
+    <sheet name="children" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="381">
   <si>
     <t>Variable</t>
   </si>
@@ -854,13 +857,331 @@
   </si>
   <si>
     <t xml:space="preserve">dummy variable for counting </t>
+  </si>
+  <si>
+    <t>slept_under_net</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>slept_under_net_own</t>
+  </si>
+  <si>
+    <t>HV040</t>
+  </si>
+  <si>
+    <t>Cluster altitude in meters</t>
+  </si>
+  <si>
+    <t>0  Did not sleep under a net</t>
+  </si>
+  <si>
+    <t>1  Only treated (ITN) nets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               2  Both treated (ITN) and untreated nets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               3  Only untreated nets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           (m) 9  Missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          (na)    Not applicable</t>
+  </si>
+  <si>
+    <t>ifelse( hml12 %in% 2:4, 1, ifelse(hml12 %in% 1, 0, NA ) )</t>
+  </si>
+  <si>
+    <t>did person sleep under a net (from 'Type of Net Slept Under')</t>
+  </si>
+  <si>
+    <t>hml32a</t>
+  </si>
+  <si>
+    <t>pf</t>
+  </si>
+  <si>
+    <t>falciparum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presence of species: falciparam (Pf) </t>
+  </si>
+  <si>
+    <t>ifelse( hml32a %in% 0:1, hml32a, NA)</t>
+  </si>
+  <si>
+    <t>urban</t>
+  </si>
+  <si>
+    <t>Urban or Rural type of residence</t>
+  </si>
+  <si>
+    <t>ifelse( hv025 %in% 1:2, hv025, NA)</t>
+  </si>
+  <si>
+    <t>if own net, did person sleep under a net (from 'Type of Net Slept Under')</t>
+  </si>
+  <si>
+    <t>ifelse( hml12 %in% 2:4, 1, ifelse(hml12 %in% 1 &amp; hv227 %in% 1 , 0, NA ) )</t>
+  </si>
+  <si>
+    <t>caseid</t>
+  </si>
+  <si>
+    <t>v001</t>
+  </si>
+  <si>
+    <t>v002</t>
+  </si>
+  <si>
+    <t>v003</t>
+  </si>
+  <si>
+    <t>v005</t>
+  </si>
+  <si>
+    <t>v008</t>
+  </si>
+  <si>
+    <t>v011</t>
+  </si>
+  <si>
+    <t>id Case Identification</t>
+  </si>
+  <si>
+    <t>Cluster number</t>
+  </si>
+  <si>
+    <t>Household number</t>
+  </si>
+  <si>
+    <t>Respondent's line number</t>
+  </si>
+  <si>
+    <t>Women's individual sample weight 6 decimals</t>
+  </si>
+  <si>
+    <t>Date of interview CMC</t>
+  </si>
+  <si>
+    <t>Date of birth CMC</t>
+  </si>
+  <si>
+    <t>v021</t>
+  </si>
+  <si>
+    <t>Primary sampling unit</t>
+  </si>
+  <si>
+    <t>Sample strata for sampling errors</t>
+  </si>
+  <si>
+    <t>v022</t>
+  </si>
+  <si>
+    <t>v023</t>
+  </si>
+  <si>
+    <t>Stratification used in sample design</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>v024</t>
+  </si>
+  <si>
+    <t>Type of place of residence</t>
+  </si>
+  <si>
+    <t>v025</t>
+  </si>
+  <si>
+    <t>Timing of 1st antenatal check months</t>
+  </si>
+  <si>
+    <t>m13</t>
+  </si>
+  <si>
+    <t>m14</t>
+  </si>
+  <si>
+    <t>Number of antenatal visits during pregnancy</t>
+  </si>
+  <si>
+    <t>During pregnancy took: SP/fansidar for malaria</t>
+  </si>
+  <si>
+    <t>Number of times took fansidar during pregnancy</t>
+  </si>
+  <si>
+    <t>ml1</t>
+  </si>
+  <si>
+    <t>m49A</t>
+  </si>
+  <si>
+    <t>98=dnk; 99=NA</t>
+  </si>
+  <si>
+    <t>Child is alive</t>
+  </si>
+  <si>
+    <t>b5</t>
+  </si>
+  <si>
+    <t>0=no; 1=yes</t>
+  </si>
+  <si>
+    <t>1=urban; 2=rural</t>
+  </si>
+  <si>
+    <t>S049A</t>
+  </si>
+  <si>
+    <t>9=NA</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>Child's age at time of interview</t>
+  </si>
+  <si>
+    <t>convert century month code to years</t>
+  </si>
+  <si>
+    <t>child_u5</t>
+  </si>
+  <si>
+    <t>Child under 5 years</t>
+  </si>
+  <si>
+    <t>child_u3</t>
+  </si>
+  <si>
+    <t>Child under 3 years</t>
+  </si>
+  <si>
+    <t>child_u1</t>
+  </si>
+  <si>
+    <t>Child under 1 years</t>
+  </si>
+  <si>
+    <t>had_anc</t>
+  </si>
+  <si>
+    <t>IPTp</t>
+  </si>
+  <si>
+    <t>Had ANC visit</t>
+  </si>
+  <si>
+    <t>IPTp1</t>
+  </si>
+  <si>
+    <t>Had IPTp1</t>
+  </si>
+  <si>
+    <t>IPTp2</t>
+  </si>
+  <si>
+    <t>Had IPTp2</t>
+  </si>
+  <si>
+    <t>IPTp3</t>
+  </si>
+  <si>
+    <t>Had IPTp3</t>
+  </si>
+  <si>
+    <t>floor( (v008-b3-1) / 12 )</t>
+  </si>
+  <si>
+    <t>v005 / 1000000</t>
+  </si>
+  <si>
+    <t>ifelse( m14 %in% 1:97 , 1, ifelse( m14 %in% 0, 0, NA ))</t>
+  </si>
+  <si>
+    <t>child_age_group</t>
+  </si>
+  <si>
+    <t>Child Age Group (&lt;1, &lt;3, &lt;5)</t>
+  </si>
+  <si>
+    <t>0 = N; 1 = Y; 8 = missing</t>
+  </si>
+  <si>
+    <t>childs_age_yrs</t>
+  </si>
+  <si>
+    <t>childs_age_mos</t>
+  </si>
+  <si>
+    <t>v008-b3</t>
+  </si>
+  <si>
+    <t>difference in century month code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cut( childs_age_yrs, breaks = c(0,  1,  2,  3,  6), right = FALSE,  include.lowest = TRUE) </t>
+  </si>
+  <si>
+    <t>child_u2</t>
+  </si>
+  <si>
+    <t>Child under 2 years</t>
+  </si>
+  <si>
+    <t>child_age_interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cut( childs_age_yrs, breaks = c(0, 2, 5), right = FALSE,  include.lowest = TRUE) </t>
+  </si>
+  <si>
+    <t>childs_age_yrs &lt; 5</t>
+  </si>
+  <si>
+    <t>childs_age_yrs &lt; 3</t>
+  </si>
+  <si>
+    <t>childs_age_yrs &lt; 1</t>
+  </si>
+  <si>
+    <t>s307</t>
+  </si>
+  <si>
+    <t>Fansidar, times taken during pregnancy (Malawi 2014)</t>
+  </si>
+  <si>
+    <t>Fansidar, times taken during pregnancy  (Malawi 2000)</t>
+  </si>
+  <si>
+    <t>s307a</t>
+  </si>
+  <si>
+    <t>ifelse( ml1 %in% 3:97 | s049a %in% 3:8 | s307 %in% 3:97 | s307a %in% 3:97 , 1, ifelse( ml1  %in% 0:2 | s049a %in% 0:2 |  m49a  %in% 0 ,  0, NA ))</t>
+  </si>
+  <si>
+    <t>ifelse( ml1 %in% 2:97 | s049a %in% 2:8 | s307 %in% 2:97 | s307a %in% 2:97 , 1,  ifelse( ml1  %in% 0:1 | s049a %in% 0:1 |  m49a  %in% 0 ,  0,  NA ))</t>
+  </si>
+  <si>
+    <t>ifelse( ml1 %in% 1:97 | s049a %in% 1:8 | s307 %in% 1:97 | s307a %in% 1:97, 1, ifelse( m49a  %in% 0 ,  0,  NA ))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -874,6 +1195,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF404040"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -902,11 +1229,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1187,13 +1516,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A29" sqref="A2:XFD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="15.796875" bestFit="1" customWidth="1"/>
@@ -1204,7 +1533,7 @@
     <col min="9" max="9" width="18.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1236,622 +1565,680 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>189</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="E7" t="s">
-        <v>150</v>
-      </c>
-      <c r="J7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="E12" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="E13" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>202</v>
       </c>
       <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E15" t="s">
+        <v>204</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>206</v>
+      </c>
+      <c r="E18" t="s">
+        <v>207</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>205</v>
+      </c>
+      <c r="E19" t="s">
+        <v>209</v>
+      </c>
+      <c r="G19">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" t="s">
-        <v>160</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>272</v>
-      </c>
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" t="s">
-        <v>271</v>
-      </c>
-      <c r="E18" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>211</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" t="s">
+        <v>214</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="25.95" customHeight="1"/>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
         <v>163</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B29" t="s">
         <v>161</v>
       </c>
-      <c r="C21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" t="s">
-        <v>164</v>
-      </c>
-      <c r="E21" t="s">
-        <v>165</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>166</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
+        <v>216</v>
+      </c>
+      <c r="E29" t="s">
+        <v>217</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
         <v>161</v>
-      </c>
-      <c r="C22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" t="s">
-        <v>167</v>
-      </c>
-      <c r="E22" t="s">
-        <v>168</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>169</v>
-      </c>
-      <c r="B23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" t="s">
-        <v>170</v>
-      </c>
-      <c r="E23" t="s">
-        <v>171</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>172</v>
-      </c>
-      <c r="B25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" t="s">
-        <v>173</v>
-      </c>
-      <c r="E25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>175</v>
-      </c>
-      <c r="B26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" t="s">
-        <v>176</v>
-      </c>
-      <c r="E26" t="s">
-        <v>177</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>178</v>
-      </c>
-      <c r="B27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" t="s">
-        <v>179</v>
-      </c>
-      <c r="E27" t="s">
-        <v>180</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>181</v>
-      </c>
-      <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" t="s">
-        <v>182</v>
-      </c>
-      <c r="E28" t="s">
-        <v>183</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
       </c>
       <c r="C30" t="s">
         <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>218</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="C31" t="s">
         <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="C32" t="s">
         <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>187</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>188</v>
+        <v>27</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="C33" t="s">
         <v>59</v>
       </c>
       <c r="D33" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="E33" t="s">
-        <v>24</v>
+        <v>222</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>190</v>
-      </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" t="s">
-        <v>191</v>
-      </c>
-      <c r="E35" t="s">
-        <v>192</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" t="s">
-        <v>193</v>
-      </c>
-      <c r="E36" t="s">
-        <v>194</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>148</v>
-      </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" t="s">
-        <v>191</v>
-      </c>
-      <c r="E37" t="s">
-        <v>195</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
         <v>59</v>
       </c>
-      <c r="D38" t="s">
-        <v>193</v>
-      </c>
       <c r="E38" t="s">
-        <v>196</v>
+        <v>29</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>223</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
         <v>59</v>
       </c>
-      <c r="D40" t="s">
-        <v>197</v>
-      </c>
       <c r="E40" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>225</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
         <v>59</v>
       </c>
-      <c r="D41" t="s">
-        <v>199</v>
-      </c>
       <c r="E41" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1860,21 +2247,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
         <v>59</v>
       </c>
       <c r="D42" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="E42" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1883,21 +2270,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
         <v>59</v>
       </c>
       <c r="D43" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="E43" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -1906,21 +2293,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45" t="s">
-        <v>205</v>
+        <v>61</v>
       </c>
       <c r="E45" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -1929,842 +2313,393 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" t="s">
-        <v>59</v>
-      </c>
-      <c r="D46" t="s">
-        <v>206</v>
-      </c>
-      <c r="E46" t="s">
-        <v>207</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>208</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D47" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="E47" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="G47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D48" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="E48" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="G48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" t="s">
+        <v>239</v>
+      </c>
+      <c r="E49" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>151</v>
+        <v>240</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D50" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="E50" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="I50" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" t="s">
+        <v>243</v>
+      </c>
+      <c r="E51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>244</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D52" t="s">
-        <v>155</v>
+        <v>245</v>
       </c>
       <c r="E52" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>157</v>
-      </c>
-      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+      <c r="I52" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>247</v>
+      </c>
+      <c r="B54" t="s">
         <v>7</v>
       </c>
-      <c r="C53" t="s">
-        <v>59</v>
-      </c>
-      <c r="D53" t="s">
-        <v>155</v>
-      </c>
-      <c r="E53" t="s">
-        <v>215</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" t="s">
+        <v>248</v>
+      </c>
+      <c r="E54" t="s">
+        <v>249</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>250</v>
       </c>
       <c r="B55" t="s">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D55" t="s">
-        <v>37</v>
+        <v>251</v>
       </c>
       <c r="E55" t="s">
-        <v>56</v>
+        <v>252</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>46</v>
-      </c>
-      <c r="B56" t="s">
-        <v>161</v>
-      </c>
-      <c r="C56" t="s">
-        <v>59</v>
-      </c>
-      <c r="D56" t="s">
-        <v>36</v>
-      </c>
-      <c r="E56" t="s">
-        <v>35</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="I55" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
         <v>161</v>
       </c>
       <c r="C57" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D57" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="E57" t="s">
-        <v>217</v>
+        <v>33</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="I57" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
         <v>161</v>
       </c>
       <c r="C58" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D58" t="s">
-        <v>40</v>
+        <v>253</v>
       </c>
       <c r="E58" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="J58" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="I58" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>218</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
         <v>161</v>
       </c>
       <c r="C59" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D59" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="E59" t="s">
-        <v>220</v>
+        <v>34</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="J59" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="I59" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>255</v>
       </c>
       <c r="B60" t="s">
         <v>161</v>
       </c>
       <c r="C60" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D60" t="s">
-        <v>39</v>
+        <v>254</v>
       </c>
       <c r="E60" t="s">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="J60" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="I60" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>166</v>
+        <v>257</v>
       </c>
       <c r="B61" t="s">
         <v>161</v>
       </c>
       <c r="C61" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D61" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="E61" t="s">
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>49</v>
-      </c>
-      <c r="B66" t="s">
+        <v>2</v>
+      </c>
+      <c r="I61" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>260</v>
+      </c>
+      <c r="B63" t="s">
         <v>58</v>
       </c>
-      <c r="C66" t="s">
-        <v>59</v>
-      </c>
-      <c r="E66" t="s">
-        <v>29</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>50</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="C63" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" t="s">
+        <v>261</v>
+      </c>
+      <c r="E63" t="s">
+        <v>262</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>263</v>
+      </c>
+      <c r="B64" t="s">
         <v>58</v>
       </c>
-      <c r="C67" t="s">
-        <v>59</v>
-      </c>
-      <c r="E67" t="s">
-        <v>28</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>223</v>
-      </c>
-      <c r="B68" t="s">
-        <v>58</v>
-      </c>
-      <c r="C68" t="s">
-        <v>59</v>
-      </c>
-      <c r="E68" t="s">
-        <v>224</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>225</v>
-      </c>
-      <c r="B69" t="s">
-        <v>58</v>
-      </c>
-      <c r="C69" t="s">
-        <v>59</v>
-      </c>
-      <c r="E69" t="s">
-        <v>226</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>227</v>
-      </c>
-      <c r="B70" t="s">
-        <v>58</v>
-      </c>
-      <c r="C70" t="s">
-        <v>59</v>
-      </c>
-      <c r="D70" t="s">
-        <v>228</v>
-      </c>
-      <c r="E70" t="s">
-        <v>229</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>230</v>
-      </c>
-      <c r="B71" t="s">
-        <v>58</v>
-      </c>
-      <c r="C71" t="s">
-        <v>59</v>
-      </c>
-      <c r="D71" t="s">
-        <v>231</v>
-      </c>
-      <c r="E71" t="s">
-        <v>232</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>41</v>
-      </c>
-      <c r="B73" t="s">
-        <v>58</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="C64" t="s">
         <v>61</v>
       </c>
-      <c r="E73" t="s">
-        <v>30</v>
-      </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>51</v>
-      </c>
-      <c r="B75" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" t="s">
-        <v>61</v>
-      </c>
-      <c r="D75" t="s">
-        <v>233</v>
-      </c>
-      <c r="E75" t="s">
-        <v>234</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75">
+      <c r="D64" t="s">
+        <v>264</v>
+      </c>
+      <c r="E64" t="s">
+        <v>265</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
         <v>2</v>
       </c>
-      <c r="I75" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>236</v>
-      </c>
-      <c r="B76" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" t="s">
-        <v>61</v>
-      </c>
-      <c r="D76" t="s">
-        <v>237</v>
-      </c>
-      <c r="E76" t="s">
-        <v>238</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-      <c r="H76">
-        <v>2</v>
-      </c>
-      <c r="I76" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>52</v>
-      </c>
-      <c r="B77" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" t="s">
-        <v>61</v>
-      </c>
-      <c r="D77" t="s">
-        <v>239</v>
-      </c>
-      <c r="E77" t="s">
-        <v>31</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>2</v>
-      </c>
-      <c r="I77" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>240</v>
-      </c>
-      <c r="B78" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" t="s">
-        <v>61</v>
-      </c>
-      <c r="D78" t="s">
-        <v>241</v>
-      </c>
-      <c r="E78" t="s">
-        <v>242</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>2</v>
-      </c>
-      <c r="I78" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>53</v>
-      </c>
-      <c r="B79" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" t="s">
-        <v>61</v>
-      </c>
-      <c r="D79" t="s">
-        <v>243</v>
-      </c>
-      <c r="E79" t="s">
-        <v>32</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79">
-        <v>2</v>
-      </c>
-      <c r="I79" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>244</v>
-      </c>
-      <c r="B80" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" t="s">
-        <v>61</v>
-      </c>
-      <c r="D80" t="s">
-        <v>245</v>
-      </c>
-      <c r="E80" t="s">
-        <v>246</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>2</v>
-      </c>
-      <c r="I80" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>247</v>
-      </c>
-      <c r="B82" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" t="s">
-        <v>61</v>
-      </c>
-      <c r="D82" t="s">
-        <v>248</v>
-      </c>
-      <c r="E82" t="s">
-        <v>249</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="H82">
-        <v>2</v>
-      </c>
-      <c r="I82" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>250</v>
-      </c>
-      <c r="B83" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" t="s">
-        <v>61</v>
-      </c>
-      <c r="D83" t="s">
-        <v>251</v>
-      </c>
-      <c r="E83" t="s">
-        <v>252</v>
-      </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-      <c r="H83">
-        <v>2</v>
-      </c>
-      <c r="I83" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>54</v>
-      </c>
-      <c r="B85" t="s">
-        <v>161</v>
-      </c>
-      <c r="C85" t="s">
-        <v>61</v>
-      </c>
-      <c r="D85" t="s">
-        <v>253</v>
-      </c>
-      <c r="E85" t="s">
-        <v>33</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>2</v>
-      </c>
-      <c r="I85" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>54</v>
-      </c>
-      <c r="B86" t="s">
-        <v>161</v>
-      </c>
-      <c r="C86" t="s">
-        <v>61</v>
-      </c>
-      <c r="D86" t="s">
-        <v>253</v>
-      </c>
-      <c r="E86" t="s">
-        <v>33</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="H86">
-        <v>2</v>
-      </c>
-      <c r="I86" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>55</v>
-      </c>
-      <c r="B87" t="s">
-        <v>161</v>
-      </c>
-      <c r="C87" t="s">
-        <v>61</v>
-      </c>
-      <c r="D87" t="s">
-        <v>254</v>
-      </c>
-      <c r="E87" t="s">
-        <v>34</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="H87">
-        <v>2</v>
-      </c>
-      <c r="I87" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>255</v>
-      </c>
-      <c r="B88" t="s">
-        <v>161</v>
-      </c>
-      <c r="C88" t="s">
-        <v>61</v>
-      </c>
-      <c r="D88" t="s">
-        <v>254</v>
-      </c>
-      <c r="E88" t="s">
-        <v>256</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88">
-        <v>2</v>
-      </c>
-      <c r="I88" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>257</v>
-      </c>
-      <c r="B89" t="s">
-        <v>161</v>
-      </c>
-      <c r="C89" t="s">
-        <v>61</v>
-      </c>
-      <c r="D89" t="s">
-        <v>258</v>
-      </c>
-      <c r="E89" t="s">
-        <v>259</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
-      <c r="H89">
-        <v>2</v>
-      </c>
-      <c r="I89" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>260</v>
-      </c>
-      <c r="B91" t="s">
-        <v>58</v>
-      </c>
-      <c r="C91" t="s">
-        <v>61</v>
-      </c>
-      <c r="D91" t="s">
-        <v>261</v>
-      </c>
-      <c r="E91" t="s">
-        <v>262</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="H91">
-        <v>2</v>
-      </c>
-      <c r="I91" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>263</v>
-      </c>
-      <c r="B92" t="s">
-        <v>58</v>
-      </c>
-      <c r="C92" t="s">
-        <v>61</v>
-      </c>
-      <c r="D92" t="s">
-        <v>264</v>
-      </c>
-      <c r="E92" t="s">
-        <v>265</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-      <c r="H92">
-        <v>2</v>
-      </c>
-      <c r="I92" t="s">
+      <c r="I64" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2775,40 +2710,563 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.796875" customWidth="1"/>
+    <col min="5" max="5" width="55.5" customWidth="1"/>
+    <col min="6" max="6" width="58.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="18.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>277</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="B3" t="s">
-        <v>68</v>
+        <v>273</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>292</v>
+      </c>
+      <c r="F9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" t="s">
+        <v>156</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>277</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>277</v>
+      </c>
+      <c r="B18" t="s">
+        <v>272</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>271</v>
+      </c>
+      <c r="F18" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>277</v>
+      </c>
+      <c r="B19" t="s">
+        <v>294</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s">
+        <v>295</v>
+      </c>
+      <c r="F19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>277</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>162</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>277</v>
+      </c>
+      <c r="B22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22" t="s">
+        <v>165</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>277</v>
+      </c>
+      <c r="B23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" t="s">
+        <v>168</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>277</v>
+      </c>
+      <c r="B24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" t="s">
+        <v>171</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>277</v>
+      </c>
+      <c r="B25" t="s">
+        <v>275</v>
+      </c>
+      <c r="C25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" t="s">
+        <v>288</v>
+      </c>
+      <c r="F25" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>277</v>
+      </c>
+      <c r="B26" t="s">
+        <v>278</v>
+      </c>
+      <c r="C26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
+        <v>297</v>
+      </c>
+      <c r="F26" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>277</v>
+      </c>
+      <c r="B29" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" t="s">
+        <v>174</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>277</v>
+      </c>
+      <c r="B30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" t="s">
+        <v>177</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>277</v>
+      </c>
+      <c r="B31" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31" t="s">
+        <v>180</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" t="s">
+        <v>182</v>
+      </c>
+      <c r="F32" t="s">
+        <v>183</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2818,15 +3276,364 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
+      <c r="A1" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="B2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F4" t="s">
+        <v>364</v>
+      </c>
+      <c r="G4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>339</v>
+      </c>
+      <c r="F5" t="s">
+        <v>356</v>
+      </c>
+      <c r="G5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>342</v>
+      </c>
+      <c r="F6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>368</v>
+      </c>
+      <c r="F8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>346</v>
+      </c>
+      <c r="F9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>360</v>
+      </c>
+      <c r="F11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B12" t="s">
+        <v>359</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>360</v>
+      </c>
+      <c r="F12" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>277</v>
+      </c>
+      <c r="B14" t="s">
+        <v>347</v>
+      </c>
+      <c r="C14" t="s">
+        <v>348</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>349</v>
+      </c>
+      <c r="F14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>277</v>
+      </c>
+      <c r="B15" t="s">
+        <v>350</v>
+      </c>
+      <c r="C15" t="s">
+        <v>348</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>351</v>
+      </c>
+      <c r="F15" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B16" t="s">
+        <v>352</v>
+      </c>
+      <c r="C16" t="s">
+        <v>348</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" t="s">
+        <v>353</v>
+      </c>
+      <c r="F16" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>277</v>
+      </c>
+      <c r="B17" t="s">
+        <v>354</v>
+      </c>
+      <c r="C17" t="s">
+        <v>348</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>355</v>
+      </c>
+      <c r="F17" t="s">
+        <v>378</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="31.05" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>266</v>
       </c>
@@ -2834,7 +3641,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -2842,7 +3649,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -2850,7 +3657,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -2858,7 +3665,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -2866,7 +3673,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -2874,7 +3681,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -2882,7 +3689,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -2890,7 +3697,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -2898,246 +3705,493 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>88</v>
       </c>
       <c r="B10" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>281</v>
+      </c>
+      <c r="I10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>90</v>
       </c>
       <c r="B11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>92</v>
       </c>
       <c r="B12" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>94</v>
       </c>
       <c r="B13" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>69</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="I14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>268</v>
+      </c>
+      <c r="B27" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>279</v>
+      </c>
+      <c r="B40" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="G9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>316</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>317</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>320</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>325</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G21" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="G22" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="G23" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>268</v>
-      </c>
-      <c r="B26" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>110</v>
-      </c>
-      <c r="B27" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>114</v>
-      </c>
-      <c r="B29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>120</v>
-      </c>
-      <c r="B33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>118</v>
-      </c>
-      <c r="B34" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>123</v>
-      </c>
-      <c r="B35" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>125</v>
-      </c>
-      <c r="B36" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>127</v>
-      </c>
-      <c r="B37" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>129</v>
-      </c>
-      <c r="B38" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>131</v>
-      </c>
-      <c r="B40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>133</v>
-      </c>
-      <c r="B41" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>135</v>
-      </c>
-      <c r="B42" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>137</v>
-      </c>
-      <c r="B43" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>50</v>
+        <v>374</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>377</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>

--- a/_Code/dhs_variable_definitions.xlsx
+++ b/_Code/dhs_variable_definitions.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bzp3\dropbox\_Malaria\Projects\DHS\_Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnpainter/Dropbox/_Malaria/Projects/DHS/_Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15996" tabRatio="729" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="729"/>
   </bookViews>
   <sheets>
     <sheet name="derived-household" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="382">
   <si>
     <t>Variable</t>
   </si>
@@ -241,9 +241,6 @@
     <t>cyl</t>
   </si>
   <si>
-    <t xml:space="preserve"> hml32</t>
-  </si>
-  <si>
     <t>Microscopy</t>
   </si>
   <si>
@@ -400,9 +397,6 @@
     <t>psu: enumeration area or sample cluster</t>
   </si>
   <si>
-    <t>sample weight (divide by 1E6)</t>
-  </si>
-  <si>
     <t>HV022</t>
   </si>
   <si>
@@ -433,9 +427,6 @@
     <t>case identification ????</t>
   </si>
   <si>
-    <t xml:space="preserve"> HVIDX</t>
-  </si>
-  <si>
     <t>line number (1 to 90)</t>
   </si>
   <si>
@@ -1175,13 +1166,25 @@
   </si>
   <si>
     <t>ifelse( ml1 %in% 1:97 | s049a %in% 1:8 | s307 %in% 1:97 | s307a %in% 1:97, 1, ifelse( m49a  %in% 0 ,  0,  NA ))</t>
+  </si>
+  <si>
+    <t>HV005 / 1e6</t>
+  </si>
+  <si>
+    <t>hv005 / 1e6</t>
+  </si>
+  <si>
+    <t>HVIDX</t>
+  </si>
+  <si>
+    <t>hml32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1516,24 +1519,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A29" sqref="A2:XFD29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F10:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.796875" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
     <col min="4" max="4" width="55.5" customWidth="1"/>
-    <col min="5" max="5" width="58.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1550,22 +1553,22 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -1576,7 +1579,7 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -1588,7 +1591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1599,7 +1602,7 @@
         <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
@@ -1611,9 +1614,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -1622,56 +1625,43 @@
         <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>378</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" t="s">
         <v>58</v>
-      </c>
-      <c r="C5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1680,55 +1670,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
         <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E8" t="s">
-        <v>194</v>
+        <v>24</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E9" t="s">
-        <v>195</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -1737,10 +1704,13 @@
         <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E10" t="s">
-        <v>196</v>
+        <v>189</v>
+      </c>
+      <c r="F10" t="s">
+        <v>274</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1749,9 +1719,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" t="s">
+        <v>191</v>
+      </c>
+      <c r="F11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -1760,10 +1756,13 @@
         <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E12" t="s">
-        <v>198</v>
+        <v>192</v>
+      </c>
+      <c r="F12" t="s">
+        <v>274</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1772,9 +1771,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -1783,10 +1782,13 @@
         <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E13" t="s">
-        <v>200</v>
+        <v>193</v>
+      </c>
+      <c r="F13" t="s">
+        <v>274</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1795,32 +1797,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>201</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" t="s">
-        <v>197</v>
-      </c>
-      <c r="E14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>203</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -1829,10 +1813,13 @@
         <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E15" t="s">
-        <v>204</v>
+        <v>195</v>
+      </c>
+      <c r="F15" t="s">
+        <v>274</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1841,9 +1828,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E16" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -1852,10 +1865,13 @@
         <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>199</v>
+      </c>
+      <c r="F17" t="s">
+        <v>274</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1864,9 +1880,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -1875,10 +1891,13 @@
         <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E18" t="s">
-        <v>207</v>
+        <v>201</v>
+      </c>
+      <c r="F18" t="s">
+        <v>274</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1887,29 +1906,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>208</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" t="s">
-        <v>205</v>
-      </c>
-      <c r="E19" t="s">
-        <v>209</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>210</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -1918,18 +1922,50 @@
         <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E20" t="s">
-        <v>211</v>
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>274</v>
       </c>
       <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" t="s">
+        <v>204</v>
+      </c>
+      <c r="F21" t="s">
+        <v>274</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -1938,44 +1974,49 @@
         <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="E22" t="s">
-        <v>213</v>
+        <v>206</v>
+      </c>
+      <c r="F22" t="s">
+        <v>274</v>
       </c>
       <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>154</v>
-      </c>
-      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>207</v>
+      </c>
+      <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C23" t="s">
         <v>59</v>
       </c>
-      <c r="D24" t="s">
-        <v>155</v>
-      </c>
-      <c r="E24" t="s">
-        <v>214</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="D23" t="s">
+        <v>203</v>
+      </c>
+      <c r="E23" t="s">
+        <v>208</v>
+      </c>
+      <c r="F23" t="s">
+        <v>274</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -1984,10 +2025,13 @@
         <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="E25" t="s">
-        <v>215</v>
+        <v>210</v>
+      </c>
+      <c r="F25" t="s">
+        <v>274</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1996,22 +2040,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="25.95" customHeight="1"/>
-    <row r="27" spans="1:10">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="B27" t="s">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>211</v>
+      </c>
+      <c r="F27" t="s">
+        <v>274</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2020,21 +2071,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>212</v>
+      </c>
+      <c r="F28" t="s">
+        <v>274</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2043,122 +2097,107 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" t="s">
-        <v>163</v>
-      </c>
-      <c r="B29" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" t="s">
-        <v>216</v>
-      </c>
-      <c r="E29" t="s">
-        <v>217</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+    <row r="29" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C30" t="s">
         <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E30" t="s">
-        <v>26</v>
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
+        <v>274</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="J30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>218</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C31" t="s">
         <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c r="E31" t="s">
-        <v>220</v>
+        <v>35</v>
+      </c>
+      <c r="F31" t="s">
+        <v>274</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="J31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="B32" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C32" t="s">
         <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
+        <v>214</v>
+      </c>
+      <c r="F32" t="s">
+        <v>274</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="J32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C33" t="s">
         <v>59</v>
       </c>
       <c r="D33" t="s">
-        <v>221</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>222</v>
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>274</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2166,70 +2205,117 @@
       <c r="H33">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
+      <c r="J33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>215</v>
+      </c>
+      <c r="B34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" t="s">
+        <v>216</v>
+      </c>
+      <c r="E34" t="s">
+        <v>217</v>
+      </c>
+      <c r="F34" t="s">
+        <v>274</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" t="s">
+        <v>274</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>163</v>
+      </c>
+      <c r="B36" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" t="s">
+        <v>218</v>
+      </c>
+      <c r="E36" t="s">
+        <v>219</v>
+      </c>
+      <c r="F36" t="s">
+        <v>274</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>49</v>
-      </c>
-      <c r="B38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
-        <v>223</v>
-      </c>
-      <c r="B40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" t="s">
-        <v>224</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" t="s">
-        <v>225</v>
       </c>
       <c r="B41" t="s">
         <v>58</v>
@@ -2238,18 +2324,21 @@
         <v>59</v>
       </c>
       <c r="E41" t="s">
-        <v>226</v>
+        <v>29</v>
+      </c>
+      <c r="F41" t="s">
+        <v>274</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>227</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
         <v>58</v>
@@ -2257,22 +2346,22 @@
       <c r="C42" t="s">
         <v>59</v>
       </c>
-      <c r="D42" t="s">
-        <v>228</v>
-      </c>
       <c r="E42" t="s">
-        <v>229</v>
+        <v>28</v>
+      </c>
+      <c r="F42" t="s">
+        <v>274</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B43" t="s">
         <v>58</v>
@@ -2280,31 +2369,60 @@
       <c r="C43" t="s">
         <v>59</v>
       </c>
-      <c r="D43" t="s">
-        <v>231</v>
-      </c>
       <c r="E43" t="s">
-        <v>232</v>
+        <v>221</v>
+      </c>
+      <c r="F43" t="s">
+        <v>274</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>222</v>
+      </c>
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" t="s">
+        <v>223</v>
+      </c>
+      <c r="F44" t="s">
+        <v>274</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="B45" t="s">
         <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="D45" t="s">
+        <v>225</v>
       </c>
       <c r="E45" t="s">
-        <v>30</v>
+        <v>226</v>
+      </c>
+      <c r="F45" t="s">
+        <v>274</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -2313,87 +2431,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
-      <c r="A47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" t="s">
-        <v>61</v>
-      </c>
-      <c r="D47" t="s">
-        <v>233</v>
-      </c>
-      <c r="E47" t="s">
-        <v>234</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>2</v>
-      </c>
-      <c r="I47" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>227</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" t="s">
+        <v>228</v>
+      </c>
+      <c r="E46" t="s">
+        <v>229</v>
+      </c>
+      <c r="F46" t="s">
+        <v>274</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>236</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
         <v>61</v>
       </c>
-      <c r="D48" t="s">
-        <v>237</v>
-      </c>
       <c r="E48" t="s">
-        <v>238</v>
+        <v>30</v>
+      </c>
+      <c r="F48" t="s">
+        <v>274</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>2</v>
-      </c>
-      <c r="I48" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" t="s">
-        <v>239</v>
-      </c>
-      <c r="E49" t="s">
-        <v>31</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>2</v>
-      </c>
-      <c r="I49" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>240</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
@@ -2402,10 +2501,13 @@
         <v>61</v>
       </c>
       <c r="D50" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="E50" t="s">
-        <v>242</v>
+        <v>231</v>
+      </c>
+      <c r="F50" t="s">
+        <v>274</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -2414,12 +2516,12 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>233</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
@@ -2428,10 +2530,13 @@
         <v>61</v>
       </c>
       <c r="D51" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E51" t="s">
-        <v>32</v>
+        <v>235</v>
+      </c>
+      <c r="F51" t="s">
+        <v>274</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -2440,12 +2545,12 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>244</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -2454,10 +2559,13 @@
         <v>61</v>
       </c>
       <c r="D52" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E52" t="s">
-        <v>246</v>
+        <v>31</v>
+      </c>
+      <c r="F52" t="s">
+        <v>274</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2466,12 +2574,41 @@
         <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>237</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" t="s">
+        <v>238</v>
+      </c>
+      <c r="E53" t="s">
+        <v>239</v>
+      </c>
+      <c r="F53" t="s">
+        <v>274</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>247</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -2480,10 +2617,13 @@
         <v>61</v>
       </c>
       <c r="D54" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E54" t="s">
-        <v>249</v>
+        <v>32</v>
+      </c>
+      <c r="F54" t="s">
+        <v>274</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -2492,12 +2632,12 @@
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -2506,10 +2646,13 @@
         <v>61</v>
       </c>
       <c r="D55" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E55" t="s">
-        <v>252</v>
+        <v>243</v>
+      </c>
+      <c r="F55" t="s">
+        <v>274</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -2518,24 +2661,32 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>244</v>
       </c>
       <c r="B57" t="s">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>61</v>
       </c>
       <c r="D57" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E57" t="s">
-        <v>33</v>
+        <v>246</v>
+      </c>
+      <c r="F57" t="s">
+        <v>274</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -2544,24 +2695,27 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>247</v>
       </c>
       <c r="B58" t="s">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>61</v>
       </c>
       <c r="D58" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E58" t="s">
-        <v>33</v>
+        <v>249</v>
+      </c>
+      <c r="F58" t="s">
+        <v>274</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -2570,50 +2724,32 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" t="s">
-        <v>161</v>
-      </c>
-      <c r="C59" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" t="s">
-        <v>254</v>
-      </c>
-      <c r="E59" t="s">
-        <v>34</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>2</v>
-      </c>
-      <c r="I59" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>255</v>
+        <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C60" t="s">
         <v>61</v>
       </c>
       <c r="D60" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E60" t="s">
-        <v>256</v>
+        <v>33</v>
+      </c>
+      <c r="F60" t="s">
+        <v>274</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -2622,24 +2758,27 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>257</v>
+        <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C61" t="s">
         <v>61</v>
       </c>
       <c r="D61" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E61" t="s">
-        <v>259</v>
+        <v>33</v>
+      </c>
+      <c r="F61" t="s">
+        <v>274</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -2648,24 +2787,56 @@
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" t="s">
+        <v>251</v>
+      </c>
+      <c r="E62" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" t="s">
+        <v>274</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="C63" t="s">
         <v>61</v>
       </c>
       <c r="D63" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E63" t="s">
-        <v>262</v>
+        <v>253</v>
+      </c>
+      <c r="F63" t="s">
+        <v>274</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -2674,24 +2845,27 @@
         <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="C64" t="s">
         <v>61</v>
       </c>
       <c r="D64" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E64" t="s">
-        <v>265</v>
+        <v>256</v>
+      </c>
+      <c r="F64" t="s">
+        <v>274</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -2700,7 +2874,70 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>235</v>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>257</v>
+      </c>
+      <c r="B66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" t="s">
+        <v>258</v>
+      </c>
+      <c r="E66" t="s">
+        <v>259</v>
+      </c>
+      <c r="F66" t="s">
+        <v>274</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="I66" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>260</v>
+      </c>
+      <c r="B67" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" t="s">
+        <v>261</v>
+      </c>
+      <c r="E67" t="s">
+        <v>262</v>
+      </c>
+      <c r="F67" t="s">
+        <v>274</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>2</v>
+      </c>
+      <c r="I67" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2716,20 +2953,20 @@
       <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.796875" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
     <col min="5" max="5" width="55.5" customWidth="1"/>
-    <col min="6" max="6" width="58.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -2747,27 +2984,27 @@
         <v>2</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
         <v>58</v>
@@ -2776,10 +3013,10 @@
         <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2788,9 +3025,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -2799,15 +3036,15 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -2828,9 +3065,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -2839,15 +3076,15 @@
         <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -2856,18 +3093,18 @@
         <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -2888,9 +3125,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -2899,15 +3136,15 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -2916,18 +3153,18 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -2936,18 +3173,18 @@
         <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -2956,16 +3193,16 @@
         <v>60</v>
       </c>
       <c r="E13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" t="s">
         <v>155</v>
-      </c>
-      <c r="F13" t="s">
-        <v>158</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -2976,7 +3213,7 @@
         <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F14" t="s">
         <v>62</v>
@@ -2985,9 +3222,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -2999,7 +3236,7 @@
         <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
@@ -3008,12 +3245,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B18" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C18" t="s">
         <v>58</v>
@@ -3022,18 +3259,18 @@
         <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F18" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B19" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C19" t="s">
         <v>58</v>
@@ -3042,27 +3279,27 @@
         <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F19" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D21" t="s">
         <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
@@ -3071,121 +3308,121 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C22" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D22" t="s">
         <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F22" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B23" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C23" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D23" t="s">
         <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F23" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B24" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D24" t="s">
         <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F24" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B25" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D25" t="s">
         <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F25" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B26" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C26" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D26" t="s">
         <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F26" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B29" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C29" t="s">
         <v>58</v>
@@ -3194,21 +3431,21 @@
         <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F29" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B30" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C30" t="s">
         <v>58</v>
@@ -3217,21 +3454,21 @@
         <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F30" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C31" t="s">
         <v>58</v>
@@ -3240,18 +3477,18 @@
         <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F31" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C32" t="s">
         <v>58</v>
@@ -3260,10 +3497,10 @@
         <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F32" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3278,23 +3515,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -3312,21 +3549,21 @@
         <v>2</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
         <v>58</v>
@@ -3335,18 +3572,18 @@
         <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C4" t="s">
         <v>58</v>
@@ -3355,21 +3592,21 @@
         <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C5" t="s">
         <v>58</v>
@@ -3378,18 +3615,18 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C6" t="s">
         <v>58</v>
@@ -3398,15 +3635,15 @@
         <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F6" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C7" t="s">
         <v>58</v>
@@ -3415,15 +3652,15 @@
         <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C8" t="s">
         <v>58</v>
@@ -3432,15 +3669,15 @@
         <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F8" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C9" t="s">
         <v>58</v>
@@ -3449,18 +3686,18 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F9" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B11" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C11" t="s">
         <v>58</v>
@@ -3469,18 +3706,18 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F11" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B12" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C12" t="s">
         <v>58</v>
@@ -3489,90 +3726,90 @@
         <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B14" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C14" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D14" t="s">
         <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F14" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B15" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C15" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D15" t="s">
         <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F15" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B16" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C16" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D16" t="s">
         <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F16" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B17" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C17" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D17" t="s">
         <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F17" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -3588,13 +3825,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -3602,7 +3839,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -3610,7 +3847,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -3625,281 +3862,284 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="57.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="31.05" customHeight="1">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
         <v>72</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>74</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>76</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>78</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>80</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>82</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>84</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>86</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>88</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
+        <v>278</v>
+      </c>
+      <c r="F10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>89</v>
       </c>
-      <c r="G10" t="s">
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" t="s">
         <v>281</v>
       </c>
-      <c r="I10" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>381</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" t="s">
-        <v>93</v>
-      </c>
-      <c r="I12" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I13" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>286</v>
+      </c>
+      <c r="B15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="I14" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>289</v>
-      </c>
-      <c r="B15" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" t="s">
         <v>96</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>98</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>100</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>102</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
         <v>104</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>106</v>
       </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>108</v>
       </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>265</v>
+      </c>
+      <c r="B27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>268</v>
-      </c>
-      <c r="B27" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>110</v>
       </c>
-      <c r="B28" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
         <v>112</v>
       </c>
-      <c r="B29" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
         <v>114</v>
       </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
         <v>116</v>
       </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>118</v>
       </c>
-      <c r="B32" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
         <v>120</v>
       </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>118</v>
       </c>
       <c r="B35" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>123</v>
       </c>
@@ -3907,7 +4147,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>125</v>
       </c>
@@ -3915,7 +4155,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>127</v>
       </c>
@@ -3923,61 +4163,53 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>276</v>
+      </c>
+      <c r="B39" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>129</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>279</v>
-      </c>
-      <c r="B40" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>380</v>
+      </c>
+      <c r="B42" t="s">
         <v>131</v>
       </c>
-      <c r="B42" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
         <v>133</v>
       </c>
-      <c r="B43" t="s">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
         <v>135</v>
       </c>
-      <c r="B44" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>137</v>
-      </c>
-      <c r="B45" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3994,204 +4226,204 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>299</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>300</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>301</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="G9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>303</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>304</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="G9" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>313</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
+      <c r="B15" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>317</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>317</v>
-      </c>
-      <c r="B15" s="5" t="s">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>319</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
+      <c r="G17" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>322</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="G17" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="5" t="s">
+      <c r="B20" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
+      <c r="G21" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>326</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="G21" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>329</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="G22" t="s">
         <v>328</v>
       </c>
-      <c r="G22" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G23" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>371</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>374</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>377</v>
-      </c>
       <c r="B25" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/_Code/dhs_variable_definitions.xlsx
+++ b/_Code/dhs_variable_definitions.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bzp3\Dropbox\_Malaria\Projects\DHS\_Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnpainter/Dropbox/_Malaria/Projects/DHS/_Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEED6A27-6A7E-E245-B2D5-14EE39D1B2F7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="15540" tabRatio="729" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="729" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="derived-summary" sheetId="5" r:id="rId1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="380">
   <si>
     <t>Variable</t>
   </si>
@@ -211,9 +212,15 @@
     <t>Demographic</t>
   </si>
   <si>
+    <t>cluster.summary</t>
+  </si>
+  <si>
     <t>indiv</t>
   </si>
   <si>
+    <t>cluster.mutate</t>
+  </si>
+  <si>
     <t>pmax( slide , RDT , na.rm = TRUE )</t>
   </si>
   <si>
@@ -475,6 +482,9 @@
     <t>RDT_slide</t>
   </si>
   <si>
+    <t xml:space="preserve">has result for boyh RDT and Microscopy </t>
+  </si>
+  <si>
     <t>ifelse( RDT %in% 0:1 &amp; slide %in% 0:1, 1,  0)</t>
   </si>
   <si>
@@ -682,12 +692,6 @@
     <t>sum( Any_net %in% 1)</t>
   </si>
   <si>
-    <t>Urban_Rural</t>
-  </si>
-  <si>
-    <t>sum( hv025 %in% 1 )</t>
-  </si>
-  <si>
     <t>Urban_Rural.wt</t>
   </si>
   <si>
@@ -886,6 +890,9 @@
     <t>pf</t>
   </si>
   <si>
+    <t>falciparum</t>
+  </si>
+  <si>
     <t xml:space="preserve">Presence of species: falciparam (Pf) </t>
   </si>
   <si>
@@ -898,9 +905,6 @@
     <t>Urban or Rural type of residence</t>
   </si>
   <si>
-    <t>ifelse( hv025 %in% 1:2, hv025, NA)</t>
-  </si>
-  <si>
     <t>if own net, did person sleep under a net (from 'Type of Net Slept Under')</t>
   </si>
   <si>
@@ -1162,32 +1166,20 @@
     <t>lubridate::ymd( paste( year_interview, month_interview, 15 , sep = '-' ) )</t>
   </si>
   <si>
-    <t>summarise</t>
-  </si>
-  <si>
-    <t>mutate</t>
-  </si>
-  <si>
-    <t>p.falciparum</t>
-  </si>
-  <si>
-    <t>p.other</t>
-  </si>
-  <si>
-    <t>Presence of non-falciparam plasmodium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">has result for both RDT and Microscopy </t>
-  </si>
-  <si>
-    <t>ifelse( hml32a %in% 1 &amp; !hml32a %in% 0 ,  1 , ifelse( hml32  %in% 1, 0, NA ))</t>
+    <t>ifelse( hv025 %in% 1:2, hv025-1, NA)</t>
+  </si>
+  <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t>mean(urban, na.rm = TRUE)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1207,19 +1199,6 @@
       <color rgb="FF404040"/>
       <name val="Lucida Grande"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1248,15 +1227,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1536,33 +1513,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" customWidth="1"/>
-    <col min="8" max="8" width="58.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="60.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1">
-      <c r="A1" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>135</v>
+      <c r="C1" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -1580,18 +1560,18 @@
         <v>2</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1606,18 +1586,18 @@
         <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1632,18 +1612,18 @@
         <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1652,24 +1632,24 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E7" t="s">
         <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1684,18 +1664,18 @@
         <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1704,27 +1684,27 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H10" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I10" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1739,19 +1719,19 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>1</v>
       </c>
@@ -1759,25 +1739,25 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H12" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I12" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>1</v>
       </c>
@@ -1785,32 +1765,32 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H13" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I13" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1825,21 +1805,21 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H15" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I15" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1854,19 +1834,19 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="G16" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H16" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I16" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>1</v>
       </c>
@@ -1874,25 +1854,25 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="G17" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H17" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I17" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>1</v>
       </c>
@@ -1900,30 +1880,30 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="G18" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H18" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I18" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I19" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>1</v>
       </c>
@@ -1937,19 +1917,19 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="G20" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H20" t="s">
         <v>25</v>
       </c>
       <c r="I20" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>1</v>
       </c>
@@ -1963,70 +1943,70 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="G21" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H21" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I21" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="G22" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H22" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I22" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="G23" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H23" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I23" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I24" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>1</v>
       </c>
@@ -2034,30 +2014,30 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="G25" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H25" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I25" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>1</v>
       </c>
@@ -2065,25 +2045,25 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="G27" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H27" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I27" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>1</v>
       </c>
@@ -2091,32 +2071,32 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="G28" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H28" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I28" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="25.95" customHeight="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I29" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2128,10 +2108,10 @@
         <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F30" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="G30" t="s">
         <v>37</v>
@@ -2140,12 +2120,12 @@
         <v>56</v>
       </c>
       <c r="I30" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2157,10 +2137,10 @@
         <v>46</v>
       </c>
       <c r="E31" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F31" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
@@ -2169,10 +2149,10 @@
         <v>35</v>
       </c>
       <c r="I31" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>1</v>
       </c>
@@ -2180,25 +2160,25 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E32" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F32" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="G32" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H32" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I32" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>0</v>
       </c>
@@ -2209,10 +2189,10 @@
         <v>47</v>
       </c>
       <c r="E33" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F33" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="G33" t="s">
         <v>40</v>
@@ -2221,13 +2201,13 @@
         <v>26</v>
       </c>
       <c r="I33" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>0</v>
       </c>
@@ -2235,28 +2215,28 @@
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E34" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F34" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="G34" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H34" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="I34" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>0</v>
       </c>
@@ -2267,10 +2247,10 @@
         <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F35" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="G35" t="s">
         <v>39</v>
@@ -2279,13 +2259,13 @@
         <v>27</v>
       </c>
       <c r="I35" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>0</v>
       </c>
@@ -2293,47 +2273,47 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E36" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F36" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="G36" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H36" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I36" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I37" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I38" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I39" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I40" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2348,18 +2328,18 @@
         <v>58</v>
       </c>
       <c r="F41" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="H41" t="s">
         <v>29</v>
       </c>
       <c r="I41" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2374,18 +2354,18 @@
         <v>58</v>
       </c>
       <c r="F42" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="H42" t="s">
         <v>28</v>
       </c>
       <c r="I42" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2394,25 +2374,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>216</v>
+        <v>378</v>
       </c>
       <c r="E43" t="s">
         <v>58</v>
       </c>
       <c r="F43" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="H43" t="s">
-        <v>217</v>
+        <v>379</v>
       </c>
       <c r="I43" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" t="s">
-        <v>270</v>
-      </c>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>1</v>
       </c>
@@ -2420,24 +2397,24 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E44" t="s">
         <v>58</v>
       </c>
       <c r="F44" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="H44" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I44" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -2446,27 +2423,27 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E45" t="s">
         <v>58</v>
       </c>
       <c r="F45" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="G45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H45" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I45" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -2475,32 +2452,32 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E46" t="s">
         <v>58</v>
       </c>
       <c r="F46" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="G46" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H46" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I46" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I47" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -2515,23 +2492,23 @@
         <v>58</v>
       </c>
       <c r="F48" t="s">
-        <v>377</v>
+        <v>61</v>
       </c>
       <c r="H48" t="s">
         <v>30</v>
       </c>
       <c r="I48" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I49" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -2546,22 +2523,22 @@
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>377</v>
+        <v>61</v>
       </c>
       <c r="G50" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H50" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I50" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J50" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>1</v>
       </c>
@@ -2569,30 +2546,30 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E51" t="s">
         <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>377</v>
+        <v>61</v>
       </c>
       <c r="G51" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H51" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I51" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J51" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -2607,22 +2584,22 @@
         <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>377</v>
+        <v>61</v>
       </c>
       <c r="G52" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H52" t="s">
         <v>31</v>
       </c>
       <c r="I52" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J52" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>1</v>
       </c>
@@ -2630,28 +2607,28 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E53" t="s">
         <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>377</v>
+        <v>61</v>
       </c>
       <c r="G53" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H53" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I53" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J53" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>1</v>
       </c>
@@ -2665,22 +2642,22 @@
         <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>377</v>
+        <v>61</v>
       </c>
       <c r="G54" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H54" t="s">
         <v>32</v>
       </c>
       <c r="I54" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J54" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>1</v>
       </c>
@@ -2688,33 +2665,33 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E55" t="s">
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>377</v>
+        <v>61</v>
       </c>
       <c r="G55" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H55" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I55" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J55" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I56" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>1</v>
       </c>
@@ -2722,28 +2699,28 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E57" t="s">
         <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>377</v>
+        <v>61</v>
       </c>
       <c r="G57" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H57" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I57" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J57" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>1</v>
       </c>
@@ -2751,33 +2728,33 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E58" t="s">
         <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>377</v>
+        <v>61</v>
       </c>
       <c r="G58" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H58" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I58" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J58" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I59" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>1</v>
       </c>
@@ -2788,25 +2765,25 @@
         <v>54</v>
       </c>
       <c r="E60" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F60" t="s">
-        <v>377</v>
+        <v>61</v>
       </c>
       <c r="G60" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H60" t="s">
         <v>33</v>
       </c>
       <c r="I60" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J60" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>1</v>
       </c>
@@ -2817,25 +2794,25 @@
         <v>55</v>
       </c>
       <c r="E61" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F61" t="s">
-        <v>377</v>
+        <v>61</v>
       </c>
       <c r="G61" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H61" t="s">
         <v>34</v>
       </c>
       <c r="I61" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J61" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>1</v>
       </c>
@@ -2843,28 +2820,28 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
+        <v>249</v>
+      </c>
+      <c r="E62" t="s">
+        <v>158</v>
+      </c>
+      <c r="F62" t="s">
+        <v>61</v>
+      </c>
+      <c r="G62" t="s">
         <v>248</v>
       </c>
-      <c r="E62" t="s">
-        <v>155</v>
-      </c>
-      <c r="F62" t="s">
-        <v>377</v>
-      </c>
-      <c r="G62" t="s">
-        <v>247</v>
-      </c>
       <c r="H62" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I62" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J62" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>1</v>
       </c>
@@ -2872,36 +2849,33 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E63" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F63" t="s">
-        <v>377</v>
+        <v>61</v>
       </c>
       <c r="G63" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H63" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I63" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J63" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I64" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" t="s">
-        <v>270</v>
-      </c>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>1</v>
       </c>
@@ -2909,31 +2883,28 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E65" t="s">
         <v>58</v>
       </c>
       <c r="F65" t="s">
-        <v>377</v>
+        <v>61</v>
       </c>
       <c r="G65" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H65" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I65" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J65" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" t="s">
-        <v>270</v>
-      </c>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>1</v>
       </c>
@@ -2941,25 +2912,25 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E66" t="s">
         <v>58</v>
       </c>
       <c r="F66" t="s">
-        <v>377</v>
+        <v>61</v>
       </c>
       <c r="G66" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H66" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I66" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J66" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2968,110 +2939,112 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.796875" customWidth="1"/>
-    <col min="7" max="7" width="55.5" customWidth="1"/>
-    <col min="8" max="8" width="58.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.83203125" customWidth="1"/>
+    <col min="8" max="8" width="62.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="175.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1">
-      <c r="A1" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="J1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
         <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E3" t="s">
         <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -3080,7 +3053,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -3089,49 +3062,49 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -3140,7 +3113,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
@@ -3149,470 +3122,416 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>270</v>
-      </c>
-      <c r="B9" t="s">
-        <v>270</v>
-      </c>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>378</v>
+        <v>285</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>270</v>
-      </c>
-      <c r="B10" t="s">
-        <v>270</v>
-      </c>
-      <c r="D10" t="s">
-        <v>379</v>
-      </c>
-      <c r="E10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" t="s">
         <v>7</v>
       </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" t="s">
-        <v>380</v>
-      </c>
-      <c r="H10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>270</v>
-      </c>
-      <c r="B12" t="s">
-        <v>270</v>
-      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>381</v>
+        <v>152</v>
       </c>
       <c r="H12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>270</v>
-      </c>
-      <c r="B13" t="s">
-        <v>270</v>
-      </c>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>270</v>
-      </c>
-      <c r="B14" t="s">
-        <v>270</v>
-      </c>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>151</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="H14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>270</v>
-      </c>
-      <c r="B15" t="s">
-        <v>270</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" t="s">
-        <v>153</v>
-      </c>
-      <c r="H15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>271</v>
+      </c>
+      <c r="B17" t="s">
+        <v>271</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="G17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B18" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="E18" t="s">
         <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G18" t="s">
-        <v>154</v>
+        <v>265</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B19" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D19" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="E19" t="s">
         <v>58</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="H19" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>270</v>
-      </c>
-      <c r="B20" t="s">
-        <v>270</v>
-      </c>
-      <c r="D20" t="s">
-        <v>286</v>
-      </c>
-      <c r="E20" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>271</v>
+      </c>
+      <c r="B21" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" t="s">
+        <v>159</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>271</v>
+      </c>
+      <c r="B22" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" t="s">
+        <v>161</v>
+      </c>
+      <c r="H22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>271</v>
+      </c>
+      <c r="B23" t="s">
+        <v>271</v>
+      </c>
+      <c r="D23" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" t="s">
+        <v>164</v>
+      </c>
+      <c r="H23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>271</v>
+      </c>
+      <c r="B24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E24" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" t="s">
+        <v>167</v>
+      </c>
+      <c r="H24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>271</v>
+      </c>
+      <c r="B25" t="s">
+        <v>271</v>
+      </c>
+      <c r="D25" t="s">
+        <v>269</v>
+      </c>
+      <c r="E25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" t="s">
+        <v>282</v>
+      </c>
+      <c r="H25" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>271</v>
+      </c>
+      <c r="B26" t="s">
+        <v>271</v>
+      </c>
+      <c r="D26" t="s">
+        <v>272</v>
+      </c>
+      <c r="E26" t="s">
+        <v>158</v>
+      </c>
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" t="s">
+        <v>290</v>
+      </c>
+      <c r="H26" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>271</v>
+      </c>
+      <c r="B29" t="s">
+        <v>271</v>
+      </c>
+      <c r="D29" t="s">
+        <v>169</v>
+      </c>
+      <c r="E29" t="s">
         <v>58</v>
       </c>
-      <c r="F20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" t="s">
-        <v>287</v>
-      </c>
-      <c r="H20" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>270</v>
-      </c>
-      <c r="B22" t="s">
-        <v>270</v>
-      </c>
-      <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" t="s">
-        <v>155</v>
-      </c>
-      <c r="F22" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" t="s">
-        <v>156</v>
-      </c>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>270</v>
-      </c>
-      <c r="B23" t="s">
-        <v>270</v>
-      </c>
-      <c r="D23" t="s">
-        <v>157</v>
-      </c>
-      <c r="E23" t="s">
-        <v>155</v>
-      </c>
-      <c r="F23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" t="s">
-        <v>158</v>
-      </c>
-      <c r="H23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B24" t="s">
-        <v>270</v>
-      </c>
-      <c r="D24" t="s">
-        <v>160</v>
-      </c>
-      <c r="E24" t="s">
-        <v>155</v>
-      </c>
-      <c r="F24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" t="s">
-        <v>161</v>
-      </c>
-      <c r="H24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
-        <v>270</v>
-      </c>
-      <c r="B25" t="s">
-        <v>270</v>
-      </c>
-      <c r="D25" t="s">
-        <v>163</v>
-      </c>
-      <c r="E25" t="s">
-        <v>155</v>
-      </c>
-      <c r="F25" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" t="s">
-        <v>164</v>
-      </c>
-      <c r="H25" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>270</v>
-      </c>
-      <c r="B26" t="s">
-        <v>270</v>
-      </c>
-      <c r="D26" t="s">
-        <v>268</v>
-      </c>
-      <c r="E26" t="s">
-        <v>155</v>
-      </c>
-      <c r="F26" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" t="s">
-        <v>281</v>
-      </c>
-      <c r="H26" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>270</v>
-      </c>
-      <c r="B27" t="s">
-        <v>270</v>
-      </c>
-      <c r="D27" t="s">
-        <v>271</v>
-      </c>
-      <c r="E27" t="s">
-        <v>155</v>
-      </c>
-      <c r="F27" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" t="s">
-        <v>289</v>
-      </c>
-      <c r="H27" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="F29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" t="s">
+        <v>170</v>
+      </c>
+      <c r="H29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D30" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E30" t="s">
         <v>58</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G30" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H30" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D31" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E31" t="s">
         <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G31" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H31" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B32" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D32" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="E32" t="s">
         <v>58</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G32" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="H32" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>270</v>
-      </c>
-      <c r="B33" t="s">
-        <v>270</v>
-      </c>
-      <c r="D33" t="s">
-        <v>175</v>
-      </c>
-      <c r="E33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" t="s">
-        <v>176</v>
-      </c>
-      <c r="H33" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -3630,267 +3549,267 @@
         <v>2</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
         <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C4" t="s">
         <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G4" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C5" t="s">
         <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C6" t="s">
         <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F6" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C7" t="s">
         <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C8" t="s">
         <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F8" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C9" t="s">
         <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B11" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C11" t="s">
         <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
+        <v>353</v>
+      </c>
+      <c r="F11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" t="s">
         <v>352</v>
-      </c>
-      <c r="F11" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>270</v>
-      </c>
-      <c r="B12" t="s">
-        <v>351</v>
       </c>
       <c r="C12" t="s">
         <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F12" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B14" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C14" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
+        <v>342</v>
+      </c>
+      <c r="F14" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>271</v>
+      </c>
+      <c r="B15" t="s">
+        <v>343</v>
+      </c>
+      <c r="C15" t="s">
         <v>341</v>
       </c>
-      <c r="F14" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>270</v>
-      </c>
-      <c r="B15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C15" t="s">
-        <v>340</v>
-      </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F15" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>271</v>
+      </c>
+      <c r="B16" t="s">
+        <v>345</v>
+      </c>
+      <c r="C16" t="s">
+        <v>341</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" t="s">
+        <v>346</v>
+      </c>
+      <c r="F16" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>270</v>
-      </c>
-      <c r="B16" t="s">
-        <v>344</v>
-      </c>
-      <c r="C16" t="s">
-        <v>340</v>
-      </c>
-      <c r="D16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" t="s">
-        <v>345</v>
-      </c>
-      <c r="F16" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>271</v>
+      </c>
+      <c r="B17" t="s">
+        <v>347</v>
+      </c>
+      <c r="C17" t="s">
+        <v>341</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>348</v>
+      </c>
+      <c r="F17" t="s">
         <v>371</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>270</v>
-      </c>
-      <c r="B17" t="s">
-        <v>346</v>
-      </c>
-      <c r="C17" t="s">
-        <v>340</v>
-      </c>
-      <c r="D17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" t="s">
-        <v>347</v>
-      </c>
-      <c r="F17" t="s">
-        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -3899,41 +3818,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3942,354 +3861,354 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="57.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="31.05" customHeight="1">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>375</v>
+      </c>
+      <c r="B14" t="s">
         <v>69</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>283</v>
+      </c>
+      <c r="B15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" t="s">
-        <v>274</v>
-      </c>
-      <c r="F10" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>374</v>
-      </c>
-      <c r="B14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>282</v>
-      </c>
-      <c r="B15" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B39" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B44" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -4300,211 +4219,211 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>293</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>295</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>296</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="G9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="5" t="s">
-        <v>297</v>
-      </c>
       <c r="B11" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>313</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>315</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>313</v>
-      </c>
       <c r="G17" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>322</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="G21" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
+      <c r="B22" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>320</v>
-      </c>
       <c r="G22" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>367</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="G23" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>366</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
